--- a/UFR.xlsx
+++ b/UFR.xlsx
@@ -166,6 +166,15 @@
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFD3D3D3"/>
       </right>
@@ -179,15 +188,6 @@
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FFD3D3D3"/>
       </right>
@@ -380,7 +380,7 @@
       </c>
       <c s="2" t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">A0557GD</t>
+          <t xml:space="preserve">A055LJG</t>
         </is>
       </c>
     </row>
@@ -398,7 +398,7 @@
     <row r="10" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024-T</t>
+          <t xml:space="preserve">5BQ2MR-288</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C10">
@@ -412,7 +412,7 @@
     <row r="11" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">FNAP-CBL-072-T</t>
+          <t xml:space="preserve">FNAP-CBL-048-T</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C11">
@@ -426,7 +426,7 @@
     <row r="12" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">FNAP-CBL-144-T</t>
+          <t xml:space="preserve">FNAP-CBL-072-T</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C12">
@@ -437,143 +437,170 @@
       <c s="5" t="str" r="D12"/>
       <c s="6" t="str" r="E12"/>
     </row>
-    <row r="13" ht="12.9" customHeight="1"/>
-    <row r="14" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B14">
+    <row r="13" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-216EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="D13"/>
+      <c s="6" t="str" r="E13"/>
+    </row>
+    <row r="14" ht="12.9" customHeight="1"/>
+    <row r="15" ht="18" customHeight="0">
+      <c s="3" t="inlineStr" r="B15">
         <is>
           <t xml:space="preserve">Details</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="5" customHeight="1"/>
-    <row r="16" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B16">
-        <is>
-          <t xml:space="preserve">MATERIAL</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C16">
-        <is>
-          <t xml:space="preserve">FRC</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D16"/>
-      <c s="6" t="str" r="E16"/>
-      <c s="4" t="inlineStr" r="F16">
-        <is>
-          <t xml:space="preserve">SRC</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G16"/>
-      <c s="4" t="inlineStr" r="H16">
-        <is>
-          <t xml:space="preserve">ITEM</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="I16">
-        <is>
-          <t xml:space="preserve">QTY</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="J16">
-        <is>
-          <t xml:space="preserve">Total</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K16"/>
-    </row>
+    <row r="16" ht="5" customHeight="1"/>
     <row r="17" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024-T</t>
+          <t xml:space="preserve">MATERIAL</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C17">
         <is>
+          <t xml:space="preserve">FRC</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="D17"/>
+      <c s="6" t="str" r="E17"/>
+      <c s="4" t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">SRC</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G17"/>
+      <c s="4" t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">ITEM</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">QTY</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">Total</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K17"/>
+    </row>
+    <row r="18" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">5BQ2MR-288</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C18">
+        <is>
           <t xml:space="preserve">845C</t>
         </is>
       </c>
-      <c s="7" t="str" r="D17"/>
-      <c s="8" t="str" r="E17"/>
-      <c s="4" t="inlineStr" r="F17">
+      <c s="7" t="str" r="D18"/>
+      <c s="8" t="str" r="E18"/>
+      <c s="4" t="inlineStr" r="F18">
         <is>
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="8" t="str" r="G17"/>
-      <c s="4" t="inlineStr" r="H17">
-        <is>
-          <t xml:space="preserve">105615251</t>
-        </is>
-      </c>
-      <c s="9" r="I17">
-        <v>1065</v>
-      </c>
-      <c s="4" t="inlineStr" r="J17">
-        <is>
-          <t xml:space="preserve">3608</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K17"/>
-    </row>
-    <row r="18" ht="18" customHeight="0">
-      <c s="10" t="str" r="B18"/>
-      <c s="11" t="str" r="C18"/>
-      <c s="12" t="str" r="E18"/>
-      <c s="11" t="str" r="F18"/>
-      <c s="12" t="str" r="G18"/>
-      <c s="13" t="str" r="H18"/>
+      <c s="8" t="str" r="G18"/>
+      <c s="4" t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">139796797</t>
+        </is>
+      </c>
       <c s="9" r="I18">
-        <v>75</v>
-      </c>
-      <c s="4" t="str" r="J18"/>
+        <v>865</v>
+      </c>
+      <c s="4" t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">865</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K18"/>
     </row>
     <row r="19" ht="18" customHeight="0">
       <c s="10" t="str" r="B19"/>
       <c s="11" t="str" r="C19"/>
       <c s="12" t="str" r="E19"/>
-      <c s="11" t="str" r="F19"/>
-      <c s="12" t="str" r="G19"/>
-      <c s="4" t="inlineStr" r="H19">
-        <is>
-          <t xml:space="preserve">105615235</t>
-        </is>
-      </c>
+      <c s="13" t="str" r="F19"/>
+      <c s="14" t="str" r="G19"/>
+      <c s="15" t="str" r="H19"/>
       <c s="9" r="I19">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c s="4" t="str" r="J19"/>
       <c s="6" t="str" r="K19"/>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="10" t="str" r="B20"/>
-      <c s="11" t="str" r="C20"/>
-      <c s="12" t="str" r="E20"/>
-      <c s="11" t="str" r="F20"/>
-      <c s="12" t="str" r="G20"/>
-      <c s="13" t="str" r="H20"/>
+      <c s="15" t="str" r="B20"/>
+      <c s="13" t="str" r="C20"/>
+      <c s="16" t="str" r="D20"/>
+      <c s="14" t="str" r="E20"/>
+      <c s="4" t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G20"/>
+      <c s="4" t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">4.2</t>
+        </is>
+      </c>
       <c s="9" r="I20">
-        <v>75</v>
-      </c>
-      <c s="4" t="str" r="J20"/>
+        <v>865</v>
+      </c>
+      <c s="4" t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">865</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K20"/>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="10" t="str" r="B21"/>
-      <c s="11" t="str" r="C21"/>
-      <c s="12" t="str" r="E21"/>
-      <c s="11" t="str" r="F21"/>
-      <c s="12" t="str" r="G21"/>
+      <c s="4" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048-T</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="7" t="str" r="D21"/>
+      <c s="8" t="str" r="E21"/>
+      <c s="4" t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="G21"/>
       <c s="4" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">105613842</t>
+          <t xml:space="preserve">139799965</t>
         </is>
       </c>
       <c s="9" r="I21">
-        <v>682</v>
-      </c>
-      <c s="4" t="str" r="J21"/>
+        <v>1316</v>
+      </c>
+      <c s="4" t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">4639</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K21"/>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -582,9 +609,13 @@
       <c s="12" t="str" r="E22"/>
       <c s="11" t="str" r="F22"/>
       <c s="12" t="str" r="G22"/>
-      <c s="13" t="str" r="H22"/>
+      <c s="4" t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">139798941</t>
+        </is>
+      </c>
       <c s="9" r="I22">
-        <v>75</v>
+        <v>1300</v>
       </c>
       <c s="4" t="str" r="J22"/>
       <c s="6" t="str" r="K22"/>
@@ -597,11 +628,11 @@
       <c s="12" t="str" r="G23"/>
       <c s="4" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">105615258</t>
+          <t xml:space="preserve">139800206</t>
         </is>
       </c>
       <c s="9" r="I23">
-        <v>559</v>
+        <v>1084</v>
       </c>
       <c s="4" t="str" r="J23"/>
       <c s="6" t="str" r="K23"/>
@@ -610,11 +641,15 @@
       <c s="10" t="str" r="B24"/>
       <c s="11" t="str" r="C24"/>
       <c s="12" t="str" r="E24"/>
-      <c s="14" t="str" r="F24"/>
-      <c s="15" t="str" r="G24"/>
-      <c s="13" t="str" r="H24"/>
+      <c s="13" t="str" r="F24"/>
+      <c s="14" t="str" r="G24"/>
+      <c s="4" t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">139803297</t>
+        </is>
+      </c>
       <c s="9" r="I24">
-        <v>75</v>
+        <v>939</v>
       </c>
       <c s="4" t="str" r="J24"/>
       <c s="6" t="str" r="K24"/>
@@ -631,15 +666,15 @@
       <c s="8" t="str" r="G25"/>
       <c s="4" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">6.2</t>
+          <t xml:space="preserve">11.3</t>
         </is>
       </c>
       <c s="9" r="I25">
-        <v>1140</v>
+        <v>1316</v>
       </c>
       <c s="4" t="inlineStr" r="J25">
         <is>
-          <t xml:space="preserve">3608</t>
+          <t xml:space="preserve">4639</t>
         </is>
       </c>
       <c s="6" t="str" r="K25"/>
@@ -652,11 +687,11 @@
       <c s="12" t="str" r="G26"/>
       <c s="4" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">6.1</t>
+          <t xml:space="preserve">8.1</t>
         </is>
       </c>
       <c s="9" r="I26">
-        <v>1077</v>
+        <v>1300</v>
       </c>
       <c s="4" t="str" r="J26"/>
       <c s="6" t="str" r="K26"/>
@@ -669,29 +704,29 @@
       <c s="12" t="str" r="G27"/>
       <c s="4" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">12.1</t>
+          <t xml:space="preserve">14.1</t>
         </is>
       </c>
       <c s="9" r="I27">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c s="4" t="str" r="J27"/>
       <c s="6" t="str" r="K27"/>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="13" t="str" r="B28"/>
-      <c s="14" t="str" r="C28"/>
+      <c s="15" t="str" r="B28"/>
+      <c s="13" t="str" r="C28"/>
       <c s="16" t="str" r="D28"/>
-      <c s="15" t="str" r="E28"/>
-      <c s="14" t="str" r="F28"/>
-      <c s="15" t="str" r="G28"/>
+      <c s="14" t="str" r="E28"/>
+      <c s="13" t="str" r="F28"/>
+      <c s="14" t="str" r="G28"/>
       <c s="4" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">9.1</t>
+          <t xml:space="preserve">5.4</t>
         </is>
       </c>
       <c s="9" r="I28">
-        <v>634</v>
+        <v>939</v>
       </c>
       <c s="4" t="str" r="J28"/>
       <c s="6" t="str" r="K28"/>
@@ -714,46 +749,80 @@
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="8" t="str" r="G29"/>
+      <c s="6" t="str" r="G29"/>
       <c s="4" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">105613713</t>
+          <t xml:space="preserve">139801213</t>
         </is>
       </c>
       <c s="9" r="I29">
-        <v>1186</v>
+        <v>1956</v>
       </c>
       <c s="4" t="inlineStr" r="J29">
         <is>
-          <t xml:space="preserve">2411</t>
+          <t xml:space="preserve">1956</t>
         </is>
       </c>
       <c s="6" t="str" r="K29"/>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="10" t="str" r="B30"/>
-      <c s="11" t="str" r="C30"/>
-      <c s="12" t="str" r="E30"/>
-      <c s="11" t="str" r="F30"/>
-      <c s="12" t="str" r="G30"/>
-      <c s="10" t="str" r="H30"/>
+      <c s="15" t="str" r="B30"/>
+      <c s="13" t="str" r="C30"/>
+      <c s="16" t="str" r="D30"/>
+      <c s="14" t="str" r="E30"/>
+      <c s="4" t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G30"/>
+      <c s="4" t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">14.6</t>
+        </is>
+      </c>
       <c s="9" r="I30">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J30"/>
+        <v>1956</v>
+      </c>
+      <c s="4" t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">1956</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K30"/>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="10" t="str" r="B31"/>
-      <c s="11" t="str" r="C31"/>
-      <c s="12" t="str" r="E31"/>
-      <c s="11" t="str" r="F31"/>
-      <c s="12" t="str" r="G31"/>
-      <c s="13" t="str" r="H31"/>
+      <c s="4" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-216EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="7" t="str" r="D31"/>
+      <c s="8" t="str" r="E31"/>
+      <c s="4" t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="G31"/>
+      <c s="4" t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">139798923</t>
+        </is>
+      </c>
       <c s="9" r="I31">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J31"/>
+        <v>551</v>
+      </c>
+      <c s="4" t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">1141</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K31"/>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -764,11 +833,11 @@
       <c s="12" t="str" r="G32"/>
       <c s="4" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">105613743</t>
+          <t xml:space="preserve">139799035</t>
         </is>
       </c>
       <c s="9" r="I32">
-        <v>1075</v>
+        <v>358</v>
       </c>
       <c s="4" t="str" r="J32"/>
       <c s="6" t="str" r="K32"/>
@@ -777,20 +846,24 @@
       <c s="10" t="str" r="B33"/>
       <c s="11" t="str" r="C33"/>
       <c s="12" t="str" r="E33"/>
-      <c s="14" t="str" r="F33"/>
-      <c s="15" t="str" r="G33"/>
-      <c s="13" t="str" r="H33"/>
+      <c s="13" t="str" r="F33"/>
+      <c s="14" t="str" r="G33"/>
+      <c s="4" t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">139797176</t>
+        </is>
+      </c>
       <c s="9" r="I33">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c s="4" t="str" r="J33"/>
       <c s="6" t="str" r="K33"/>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="13" t="str" r="B34"/>
-      <c s="14" t="str" r="C34"/>
+      <c s="15" t="str" r="B34"/>
+      <c s="13" t="str" r="C34"/>
       <c s="16" t="str" r="D34"/>
-      <c s="15" t="str" r="E34"/>
+      <c s="14" t="str" r="E34"/>
       <c s="4" t="inlineStr" r="F34">
         <is>
           <t xml:space="preserve">task</t>
@@ -799,222 +872,20 @@
       <c s="6" t="str" r="G34"/>
       <c s="4" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">4.2</t>
+          <t xml:space="preserve">5.1</t>
         </is>
       </c>
       <c s="9" r="I34">
-        <v>2411</v>
+        <v>1141</v>
       </c>
       <c s="4" t="inlineStr" r="J34">
         <is>
-          <t xml:space="preserve">2411</t>
+          <t xml:space="preserve">1141</t>
         </is>
       </c>
       <c s="6" t="str" r="K34"/>
     </row>
-    <row r="35" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B35">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-144-T</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C35">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="7" t="str" r="D35"/>
-      <c s="8" t="str" r="E35"/>
-      <c s="4" t="inlineStr" r="F35">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="G35"/>
-      <c s="4" t="inlineStr" r="H35">
-        <is>
-          <t xml:space="preserve">105615203</t>
-        </is>
-      </c>
-      <c s="9" r="I35">
-        <v>977</v>
-      </c>
-      <c s="4" t="inlineStr" r="J35">
-        <is>
-          <t xml:space="preserve">3326</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K35"/>
-    </row>
-    <row r="36" ht="18" customHeight="0">
-      <c s="10" t="str" r="B36"/>
-      <c s="11" t="str" r="C36"/>
-      <c s="12" t="str" r="E36"/>
-      <c s="11" t="str" r="F36"/>
-      <c s="12" t="str" r="G36"/>
-      <c s="13" t="str" r="H36"/>
-      <c s="9" r="I36">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J36"/>
-      <c s="6" t="str" r="K36"/>
-    </row>
-    <row r="37" ht="18" customHeight="0">
-      <c s="10" t="str" r="B37"/>
-      <c s="11" t="str" r="C37"/>
-      <c s="12" t="str" r="E37"/>
-      <c s="11" t="str" r="F37"/>
-      <c s="12" t="str" r="G37"/>
-      <c s="4" t="inlineStr" r="H37">
-        <is>
-          <t xml:space="preserve">105615156</t>
-        </is>
-      </c>
-      <c s="9" r="I37">
-        <v>932</v>
-      </c>
-      <c s="4" t="str" r="J37"/>
-      <c s="6" t="str" r="K37"/>
-    </row>
-    <row r="38" ht="18" customHeight="0">
-      <c s="10" t="str" r="B38"/>
-      <c s="11" t="str" r="C38"/>
-      <c s="12" t="str" r="E38"/>
-      <c s="11" t="str" r="F38"/>
-      <c s="12" t="str" r="G38"/>
-      <c s="10" t="str" r="H38"/>
-      <c s="9" r="I38">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J38"/>
-      <c s="6" t="str" r="K38"/>
-    </row>
-    <row r="39" ht="18" customHeight="0">
-      <c s="10" t="str" r="B39"/>
-      <c s="11" t="str" r="C39"/>
-      <c s="12" t="str" r="E39"/>
-      <c s="11" t="str" r="F39"/>
-      <c s="12" t="str" r="G39"/>
-      <c s="13" t="str" r="H39"/>
-      <c s="9" r="I39">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J39"/>
-      <c s="6" t="str" r="K39"/>
-    </row>
-    <row r="40" ht="18" customHeight="0">
-      <c s="10" t="str" r="B40"/>
-      <c s="11" t="str" r="C40"/>
-      <c s="12" t="str" r="E40"/>
-      <c s="11" t="str" r="F40"/>
-      <c s="12" t="str" r="G40"/>
-      <c s="4" t="inlineStr" r="H40">
-        <is>
-          <t xml:space="preserve">105613268</t>
-        </is>
-      </c>
-      <c s="9" r="I40">
-        <v>848</v>
-      </c>
-      <c s="4" t="str" r="J40"/>
-      <c s="6" t="str" r="K40"/>
-    </row>
-    <row r="41" ht="18" customHeight="0">
-      <c s="10" t="str" r="B41"/>
-      <c s="11" t="str" r="C41"/>
-      <c s="12" t="str" r="E41"/>
-      <c s="11" t="str" r="F41"/>
-      <c s="12" t="str" r="G41"/>
-      <c s="10" t="str" r="H41"/>
-      <c s="9" r="I41">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J41"/>
-      <c s="6" t="str" r="K41"/>
-    </row>
-    <row r="42" ht="18" customHeight="0">
-      <c s="10" t="str" r="B42"/>
-      <c s="11" t="str" r="C42"/>
-      <c s="12" t="str" r="E42"/>
-      <c s="11" t="str" r="F42"/>
-      <c s="12" t="str" r="G42"/>
-      <c s="13" t="str" r="H42"/>
-      <c s="9" r="I42">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J42"/>
-      <c s="6" t="str" r="K42"/>
-    </row>
-    <row r="43" ht="18" customHeight="0">
-      <c s="10" t="str" r="B43"/>
-      <c s="11" t="str" r="C43"/>
-      <c s="12" t="str" r="E43"/>
-      <c s="11" t="str" r="F43"/>
-      <c s="12" t="str" r="G43"/>
-      <c s="4" t="inlineStr" r="H43">
-        <is>
-          <t xml:space="preserve">105613868</t>
-        </is>
-      </c>
-      <c s="9" r="I43">
-        <v>219</v>
-      </c>
-      <c s="4" t="str" r="J43"/>
-      <c s="6" t="str" r="K43"/>
-    </row>
-    <row r="44" ht="18" customHeight="0">
-      <c s="10" t="str" r="B44"/>
-      <c s="11" t="str" r="C44"/>
-      <c s="12" t="str" r="E44"/>
-      <c s="11" t="str" r="F44"/>
-      <c s="12" t="str" r="G44"/>
-      <c s="10" t="str" r="H44"/>
-      <c s="9" r="I44">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J44"/>
-      <c s="6" t="str" r="K44"/>
-    </row>
-    <row r="45" ht="18" customHeight="0">
-      <c s="10" t="str" r="B45"/>
-      <c s="11" t="str" r="C45"/>
-      <c s="12" t="str" r="E45"/>
-      <c s="14" t="str" r="F45"/>
-      <c s="15" t="str" r="G45"/>
-      <c s="13" t="str" r="H45"/>
-      <c s="9" r="I45">
-        <v>50</v>
-      </c>
-      <c s="4" t="str" r="J45"/>
-      <c s="6" t="str" r="K45"/>
-    </row>
-    <row r="46" ht="18" customHeight="0">
-      <c s="13" t="str" r="B46"/>
-      <c s="14" t="str" r="C46"/>
-      <c s="16" t="str" r="D46"/>
-      <c s="15" t="str" r="E46"/>
-      <c s="4" t="inlineStr" r="F46">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G46"/>
-      <c s="4" t="inlineStr" r="H46">
-        <is>
-          <t xml:space="preserve">4.1</t>
-        </is>
-      </c>
-      <c s="9" r="I46">
-        <v>3326</v>
-      </c>
-      <c s="4" t="inlineStr" r="J46">
-        <is>
-          <t xml:space="preserve">3326</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K46"/>
-    </row>
-    <row r="47" ht="27.1" customHeight="1"/>
+    <row r="35" ht="27.1" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
@@ -1023,22 +894,23 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:E28"/>
-    <mergeCell ref="F17:G24"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:E20"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:E28"/>
+    <mergeCell ref="F21:G24"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="H23:H24"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="F25:G28"/>
@@ -1046,43 +918,26 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:E34"/>
-    <mergeCell ref="F29:G33"/>
-    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="F31:G33"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H32:H33"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C35:E46"/>
-    <mergeCell ref="F35:G45"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" location="'UFR'!C35"/>
-    <hyperlink ref="C11" location="'UFR'!C29"/>
-    <hyperlink ref="C10" location="'UFR'!C17"/>
+    <hyperlink ref="C13" location="'UFR'!C31"/>
+    <hyperlink ref="C12" location="'UFR'!C29"/>
+    <hyperlink ref="C11" location="'UFR'!C21"/>
+    <hyperlink ref="C10" location="'UFR'!C18"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
